--- a/議事録/議事録_template.xlsx
+++ b/議事録/議事録_template.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta2\Pictures\日本ゲーム大賞2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta2\Pictures\日本ゲーム大賞2023_Share\議事録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC2379-64C6-46E6-876D-7DCABA6B7E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E828B-5F41-4F78-8FFA-A182E379D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4E9DEE91-4CB2-4732-891F-8D8E6B146D54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4E9DEE91-4CB2-4732-891F-8D8E6B146D54}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="○月○日_議事録" sheetId="2" r:id="rId2"/>
+    <sheet name="Template2" sheetId="3" r:id="rId2"/>
+    <sheet name="○月○日_議事録" sheetId="2" r:id="rId3"/>
+    <sheet name="○月●日_議事録2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
   <si>
     <t>メンバー</t>
     <phoneticPr fontId="1"/>
@@ -160,6 +162,39 @@
   </si>
   <si>
     <t>Alt + ↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>議題</t>
+    <rPh sb="0" eb="2">
+      <t>ギダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Miro Link-&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://miro.com/app/board/uXjVPsYCNdc=/?moveToWidget=3458764545357583139&amp;cot=14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -167,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +227,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +250,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,13 +298,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,15 +338,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFC1F1F7"/>
+      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -557,7 +685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,7 +696,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -680,11 +808,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5007AF6-C903-4762-8326-9ED306A8EFB4}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="5"/>
+    <col min="3" max="3" width="23.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E7" s="9"/>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E8" s="9"/>
+      <c r="F8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E9" s="9"/>
+      <c r="F9" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E10" s="9"/>
+      <c r="F10" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="9"/>
+      <c r="F12" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="9"/>
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="9"/>
+      <c r="F14" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{950BD309-3C52-4A1B-80A2-A7AE1B9BDEBD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1321-3527-489D-9897-5F125E364B1D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -792,4 +1040,124 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CF867E-CEBA-4D3D-ABBC-8B384AE9F7E0}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="5"/>
+    <col min="3" max="3" width="23.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E7" s="9"/>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E8" s="9"/>
+      <c r="F8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E9" s="9"/>
+      <c r="F9" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E10" s="9"/>
+      <c r="F10" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="9"/>
+      <c r="F12" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="9"/>
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="9"/>
+      <c r="F14" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{8DF3E835-0F17-4175-B72D-C575E801727B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/議事録/議事録_template.xlsx
+++ b/議事録/議事録_template.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta2\Pictures\日本ゲーム大賞2023_Share\議事録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E828B-5F41-4F78-8FFA-A182E379D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFD260F-F5E1-4E86-B622-793BEA1A4CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4E9DEE91-4CB2-4732-891F-8D8E6B146D54}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E9DEE91-4CB2-4732-891F-8D8E6B146D54}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Template2" sheetId="3" r:id="rId2"/>
-    <sheet name="○月○日_議事録" sheetId="2" r:id="rId3"/>
-    <sheet name="○月●日_議事録2" sheetId="4" r:id="rId4"/>
+    <sheet name="2月12日_議事録" sheetId="5" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId2"/>
+    <sheet name="Template2" sheetId="3" r:id="rId3"/>
+    <sheet name="○月○日_議事録" sheetId="2" r:id="rId4"/>
+    <sheet name="○月●日_議事録2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t>メンバー</t>
     <phoneticPr fontId="1"/>
@@ -195,6 +196,364 @@
     <rPh sb="0" eb="2">
       <t>ヤクショク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴを確認しよう</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>板橋くんのやつ背景どういるのか？いらないのか問題</t>
+    <rPh sb="0" eb="2">
+      <t>イタバシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草案現状</t>
+    <rPh sb="0" eb="2">
+      <t>ソウアン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザインスプリント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草案説明</t>
+    <rPh sb="0" eb="2">
+      <t>ソウアン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草案は一旦後藤先生からOKもらえた。金曜日会えなくてまだ確定はもらえてない
+月曜日後藤先生にフィードバックもらって、14日からプロトタイプスタート</t>
+    <rPh sb="0" eb="2">
+      <t>ソウアン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>ゴトウセ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>キンヨウビ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ゲツヨウビ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ゴトウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状進んでるのをやればOK</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフト機能</t>
+  </si>
+  <si>
+    <t>はめる機能</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイナーさんが3Dが得意。3Dゲームになりました。
+フィールドに落ちているブロックを使って、上に登るための階段を作ろう
+ブロックはフィールド上に有限で存在している</t>
+    <rPh sb="11" eb="13">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ユウゲン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの塊をはめる機能</t>
+    <rPh sb="5" eb="6">
+      <t>カタマリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの挙動</t>
+    <rPh sb="6" eb="8">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動・ジャンプ・能力だけ。</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームボリュームはステージとギミックで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度置いたブロックを移動する機能</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動できるブロックは1つずつだけ。
+上からとる場合、1ブロックだけ使える。</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトタイプは外す・クラフト・はめる</t>
+    <rPh sb="7" eb="8">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラはドラクエビルダーみたいな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崖に登るための階段を作る機能
+フィールドにあるブロックを回収して、階段を作る
+別画面かUIにポップアップとして出す</t>
+    <rPh sb="0" eb="1">
+      <t>ガケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ベツガメン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こだわり要素どこ</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「REGOの外す・はめる」から始まった。
+クラフト要素のこだわり</t>
+    <rPh sb="6" eb="7">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度はどれくらいになるんだろう。</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲームが下手な人でもできるようにする。
+</t>
+    <rPh sb="4" eb="6">
+      <t>ヘタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイナーさんのタスクはなにかある？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界観決めるのに、仙頭君と話し合い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトタイプでやることの洗い出し</t>
+    <rPh sb="12" eb="13">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトタイプでやることのタスク割当</t>
+    <rPh sb="15" eb="17">
+      <t>ワリアテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>来週のミーティング予定</t>
+    <rPh sb="0" eb="2">
+      <t>ライシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/18(土)　2/19(日)　にミーティングする予定　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Miro下
+https://miro.com/app/board/uXjVPsYCNdc=/?moveToWidget=3458764545967693881&amp;cot=14</t>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://haltokyomgttest.atlassian.net/browse/HAL-9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -202,7 +561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +595,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +653,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -322,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,32 +723,77 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -380,6 +804,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FFCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFC1F1F7"/>
       <color rgb="FFFF99FF"/>
@@ -692,6 +1117,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98578546-2666-43AE-B0F5-EFCA1F298ECD}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="46.796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{DCAF961F-CC24-45BB-A011-D0499CBC879E}"/>
+    <hyperlink ref="C15" r:id="rId2" display="https://miro.com/app/board/uXjVPsYCNdc=/?moveToWidget=3458764545967693881&amp;cot=14" xr:uid="{F6277C87-88A0-4667-AFB2-1BED1E299599}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{8D977E28-39A1-44F3-BB3E-58E7D5448413}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B1EC19-82DB-40C8-A60C-BB0DD93DAEB4}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -807,7 +1540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5007AF6-C903-4762-8326-9ED306A8EFB4}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -833,88 +1566,86 @@
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E7" s="9"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E8" s="9"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E9" s="9"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E10" s="9"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E12" s="9"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E13" s="9"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E14" s="9"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -927,7 +1658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1321-3527-489D-9897-5F125E364B1D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1042,11 +1773,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CF867E-CEBA-4D3D-ABBC-8B384AE9F7E0}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1068,88 +1799,86 @@
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E7" s="9"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E8" s="9"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E9" s="9"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E10" s="9"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E12" s="9"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E13" s="9"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E14" s="9"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="14" t="s">
         <v>14</v>
       </c>
     </row>

--- a/議事録/議事録_template.xlsx
+++ b/議事録/議事録_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta2\Pictures\日本ゲーム大賞2023_Share\議事録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C1413D-F436-40A2-86FD-61D12E1E6DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C577C423-9E7D-49B6-BDE9-955BFE11EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E9DEE91-4CB2-4732-891F-8D8E6B146D54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>メンバー</t>
     <phoneticPr fontId="1"/>
@@ -149,6 +149,13 @@
     <t>役職</t>
     <rPh sb="0" eb="2">
       <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -281,26 +288,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CF867E-CEBA-4D3D-ABBC-8B384AE9F7E0}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -639,7 +646,7 @@
     <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -650,7 +657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E2" t="s">
         <v>15</v>
       </c>
@@ -658,79 +665,92 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E7" s="4"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E8" s="4"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E9" s="4"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E10" s="4"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E11" s="9" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E12" s="4"/>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E13" s="4"/>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E14" s="4"/>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
